--- a/backlogRev.xlsx
+++ b/backlogRev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tugas Kuliah\SEMESTER 4\TKPPL\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tkppl3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Prioritas</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>BACKLOG (E-COMMERCE SHOPIFY)</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -210,23 +213,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +514,7 @@
   <dimension ref="B3:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,317 +529,365 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="B3:H5"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
@@ -853,54 +904,6 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/backlogRev.xlsx
+++ b/backlogRev.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tkppl3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Prioritas</t>
   </si>
@@ -125,14 +120,17 @@
     <t>BACKLOG (E-COMMERCE SHOPIFY)</t>
   </si>
   <si>
-    <t>done</t>
+    <t>Memperjelas barang secara detail kepada pengunjung saat mau mengorder produk</t>
+  </si>
+  <si>
+    <t>Pembeli dapat membayar kepada salah satu dari 4 admin yang telah diberikan no rekeningnya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,29 +205,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,21 +533,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -528,69 +558,69 @@
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:8" ht="15" customHeight="1">
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1"/>
+    <row r="7" spans="2:8" ht="18" customHeight="1">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="18" customHeight="1">
       <c r="B9" s="4">
         <v>1</v>
       </c>
@@ -603,58 +633,58 @@
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="16.5" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15" customHeight="1">
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -667,7 +697,7 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2"/>
@@ -675,16 +705,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -700,53 +730,55 @@
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="28.5" customHeight="1">
       <c r="B19" s="2">
         <v>6</v>
       </c>
@@ -759,7 +791,7 @@
       <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2"/>
@@ -767,23 +799,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="27" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="2">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>15</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -792,28 +824,30 @@
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="2">
         <v>8</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -822,24 +856,72 @@
       <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B3:H5"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -856,54 +938,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B3:H5"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/backlogRev.xlsx
+++ b/backlogRev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Prioritas</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Pembeli dapat membayar kepada salah satu dari 4 admin yang telah diberikan no rekeningnya</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Menampilkan data barang yang dimasukkan dalam cart</t>
+  </si>
+  <si>
+    <t>Dengan keranjang belanja, maka pembeli dapat  menambah maupun mengurangi barang-barang pada cart</t>
   </si>
 </sst>
 </file>
@@ -237,19 +246,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -257,9 +269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H24"/>
+  <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,66 +568,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1"/>
     <row r="7" spans="2:8" ht="18" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
       <c r="B9" s="4">
@@ -633,10 +642,10 @@
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -648,8 +657,8 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1">
@@ -659,16 +668,16 @@
       <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -678,10 +687,10 @@
     <row r="12" spans="2:8">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8">
@@ -697,7 +706,7 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2"/>
@@ -710,7 +719,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -730,7 +739,7 @@
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -743,7 +752,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8">
@@ -753,16 +762,16 @@
       <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -772,10 +781,10 @@
     <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" ht="28.5" customHeight="1">
@@ -791,7 +800,7 @@
       <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2"/>
@@ -804,7 +813,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -815,7 +824,7 @@
       <c r="C21" s="2">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -824,7 +833,7 @@
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -834,10 +843,10 @@
     <row r="22" spans="2:8">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
@@ -847,7 +856,7 @@
       <c r="C23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -856,7 +865,7 @@
       <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -866,14 +875,101 @@
     <row r="24" spans="2:8">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="2"/>
     </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="71">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="B3:H5"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
@@ -890,54 +986,6 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
